--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -19,14 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>dfgfff</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,7 +529,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,56 +542,33 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
